--- a/Diploma/Metrics_predicted_new.xlsx
+++ b/Diploma/Metrics_predicted_new.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1510897965667691</v>
+        <v>0.9965699487229559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0345385012339465</v>
+        <v>0.002208650319530431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9722260395155938</v>
+        <v>0.9990623130852649</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3317581391615037</v>
+        <v>-0.3265723221688601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4828335084648449</v>
+        <v>0.4824760960532301</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5852315579322276</v>
+        <v>-0.5873498981461435</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.794459219627768</v>
+        <v>-0.05734928802674788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2017486480728905</v>
+        <v>0.1249142439989834</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2385867523407646</v>
+        <v>-0.0161497335617524</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.7777464941066357</v>
+        <v>-0.5359341722226971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5764085375385642</v>
+        <v>0.5554471686140796</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6129841681828315</v>
+        <v>-0.5637216189927574</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9774529075589682</v>
+        <v>-10.95209495043962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06703712926701862</v>
+        <v>0.8934283804811416</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960912184604993</v>
+        <v>-0.4776221073808635</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5593986296853781</v>
+        <v>0.9051383052607735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03115646699830713</v>
+        <v>0.01443863690947908</v>
       </c>
       <c r="E7" t="n">
-        <v>0.968343386761881</v>
+        <v>0.9598009007022293</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.04208597505860867</v>
+        <v>-1.098025891347283</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9180511454851423</v>
+        <v>0.6698770340678948</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.884208869600679</v>
+        <v>-0.3662337739607429</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3760959571466423</v>
+        <v>0.4242379068891781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01204619917473187</v>
+        <v>0.01157189805751288</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9799433192071846</v>
+        <v>0.9750035643357913</v>
       </c>
     </row>
     <row r="10">
